--- a/StopList.xlsx
+++ b/StopList.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -411,12 +411,46 @@
         <v>12348</v>
       </c>
       <c r="E2" t="str">
-        <v>2016-05-07T00:00:00</v>
+        <v>07-05-2016</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>љупчо астра</v>
+      </c>
+      <c r="B3" t="str">
+        <v>НИКОБ</v>
+      </c>
+      <c r="C3" t="str">
+        <v>112</v>
+      </c>
+      <c r="D3" t="str">
+        <v>11112</v>
+      </c>
+      <c r="E3" t="str">
+        <v>02-04-2018</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>љупчо астра</v>
+      </c>
+      <c r="B4" t="str">
+        <v>НИКОБ</v>
+      </c>
+      <c r="C4" t="str">
+        <v>222</v>
+      </c>
+      <c r="D4" t="str">
+        <v>22222</v>
+      </c>
+      <c r="E4" t="str">
+        <v>12-06-2018</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E4"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/StopList.xlsx
+++ b/StopList.xlsx
@@ -375,10 +375,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
+  <cols>
+    <col min="1" max="1" width="20.83203125" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" customWidth="1"/>
+    <col min="4" max="4" width="20.83203125" customWidth="1"/>
+    <col min="5" max="5" width="20.83203125" customWidth="1"/>
+    <col min="6" max="6" width="20.83203125" customWidth="1"/>
+    <col min="7" max="7" width="20.83203125" customWidth="1"/>
+    <col min="8" max="8" width="20.83203125" customWidth="1"/>
+    <col min="9" max="9" width="20.83203125" customWidth="1"/>
+    <col min="10" max="10" width="20.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
@@ -399,7 +411,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Лазо Врдинов</v>
+        <v>Рубинчо Негриоски</v>
       </c>
       <c r="B2" t="str">
         <v>ТАВ ИТ</v>
@@ -408,49 +420,15 @@
         <v>123</v>
       </c>
       <c r="D2" t="str">
-        <v>12348</v>
+        <v>12345</v>
       </c>
       <c r="E2" t="str">
-        <v>07-05-2016</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>љупчо астра</v>
-      </c>
-      <c r="B3" t="str">
-        <v>НИКОБ</v>
-      </c>
-      <c r="C3" t="str">
-        <v>112</v>
-      </c>
-      <c r="D3" t="str">
-        <v>11112</v>
-      </c>
-      <c r="E3" t="str">
-        <v>02-04-2018</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>љупчо астра</v>
-      </c>
-      <c r="B4" t="str">
-        <v>НИКОБ</v>
-      </c>
-      <c r="C4" t="str">
-        <v>222</v>
-      </c>
-      <c r="D4" t="str">
-        <v>22222</v>
-      </c>
-      <c r="E4" t="str">
-        <v>12-06-2018</v>
+        <v>08-01-2017</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E2"/>
   </ignoredErrors>
 </worksheet>
 </file>